--- a/ECILC (TRY).xlsx
+++ b/ECILC (TRY).xlsx
@@ -6510,6 +6510,9 @@
       <c r="A108" t="str">
         <v xml:space="preserve">    Hedge Dahil Net Yabancı Para Pozisyonu</v>
       </c>
+      <c r="B108">
+        <v>430249000</v>
+      </c>
       <c r="C108">
         <v>-221860018.1535485</v>
       </c>
@@ -6918,6 +6921,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>6825987000</v>
+      </c>
       <c r="C5">
         <v>4307906992.992079</v>
       </c>
@@ -6928,7 +6934,7 @@
         <v>10900093329.973368</v>
       </c>
       <c r="F5">
-        <v>7766592789.870792</v>
+        <v>8349489000</v>
       </c>
       <c r="G5">
         <v>5543372076.324082</v>
@@ -6971,6 +6977,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>1576415000</v>
+      </c>
       <c r="C6">
         <v>1248824652.8764403</v>
       </c>
@@ -6981,7 +6990,7 @@
         <v>2309148677.5213723</v>
       </c>
       <c r="F6">
-        <v>1613680801.4496312</v>
+        <v>1734791000</v>
       </c>
       <c r="G6">
         <v>1336195614.1716447</v>
@@ -10326,6 +10335,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>2518080007.007921</v>
+      </c>
       <c r="C5">
         <v>2232311290.408886</v>
       </c>
@@ -10333,10 +10345,10 @@
         <v>2075595702.583193</v>
       </c>
       <c r="E5">
-        <v>3133500540.1025753</v>
+        <v>2550604329.9733677</v>
       </c>
       <c r="F5">
-        <v>2223220713.54671</v>
+        <v>2806116923.6759176</v>
       </c>
       <c r="G5">
         <v>2513191214.250823</v>
@@ -10373,6 +10385,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>327590347.1235597</v>
+      </c>
       <c r="C6">
         <v>606336539.6578091</v>
       </c>
@@ -10380,10 +10395,10 @@
         <v>642488113.2186311</v>
       </c>
       <c r="E6">
-        <v>695467876.0717411</v>
+        <v>574357677.5213723</v>
       </c>
       <c r="F6">
-        <v>277485187.2779865</v>
+        <v>398595385.8283553</v>
       </c>
       <c r="G6">
         <v>656010014.3798071</v>
@@ -13629,6 +13644,9 @@
       <c r="A5" t="str">
         <v xml:space="preserve">    Yurt İçi Satışlar</v>
       </c>
+      <c r="B5">
+        <v>9376591329.973368</v>
+      </c>
       <c r="C5">
         <v>9664628246.641365</v>
       </c>
@@ -13639,7 +13657,7 @@
         <v>10900093329.973368</v>
       </c>
       <c r="F5">
-        <v>10567622225.336481</v>
+        <v>11150518435.465689</v>
       </c>
       <c r="G5">
         <v>10910630185.807858</v>
@@ -13664,6 +13682,9 @@
       <c r="A6" t="str">
         <v xml:space="preserve">    Yurt Dışı Satışlar</v>
       </c>
+      <c r="B6">
+        <v>2150772677.5213723</v>
+      </c>
       <c r="C6">
         <v>2221777716.2261677</v>
       </c>
@@ -13674,7 +13695,7 @@
         <v>2309148677.5213723</v>
       </c>
       <c r="F6">
-        <v>2326686549.101538</v>
+        <v>2447796747.651907</v>
       </c>
       <c r="G6">
         <v>2531362260.6658144</v>
